--- a/biology/Médecine/Liborio_Zerda/Liborio_Zerda.xlsx
+++ b/biology/Médecine/Liborio_Zerda/Liborio_Zerda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liborio Zerda, né en 1830 à Bogota et mort en 1919 dans la même ville, était un médecin et scientifique colombien[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liborio Zerda, né en 1830 à Bogota et mort en 1919 dans la même ville, était un médecin et scientifique colombien.
 </t>
         </is>
       </c>
@@ -511,16 +523,87 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les listes ci-dessous sont une sélection parmi ses différents travaux[2].
-Livres
-El Dorado; estudio histórico, etnográfico y arqueológico de los Chibchas, habitantes de la antigua Cundinamarca, y de algunas otras tribus, 1883.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les listes ci-dessous sont une sélection parmi ses différents travaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liborio_Zerda</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liborio_Zerda</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Travaux</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>El Dorado; estudio histórico, etnográfico y arqueológico de los Chibchas, habitantes de la antigua Cundinamarca, y de algunas otras tribus, 1883.
 Monografía del caucho, 1880.
 Análisis industrial de diez y seis clases de ulla de los contornos de la sabana de Bogotà y una de Riohacha, practicado por Liborio Zerda, 1873.
-Hipiátrica, tratado de medicina del caballo, 1866.
-Articles
-Reglamento para las escuelas normales, 1910.
+Hipiátrica, tratado de medicina del caballo, 1866.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liborio_Zerda</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liborio_Zerda</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Travaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Reglamento para las escuelas normales, 1910.
 Fisica molecular, 1906.
 Hipotesis. Propuesta para explicar la radioactividad, 1906.
 Metodos para reconocer si una materia es radioactiva, 1906.
